--- a/www/terminologies/ValueSet-jdv-hl7-v3-AdministrableDrugForm-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-hl7-v3-AdministrableDrugForm-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103858</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:58+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,55 +99,55 @@
     <t>APPFUL</t>
   </si>
   <si>
-    <t>Applicatorful</t>
+    <t>Applicateur</t>
   </si>
   <si>
     <t>PUFF</t>
   </si>
   <si>
-    <t>Puff</t>
+    <t>Bouffée</t>
   </si>
   <si>
     <t>SCOOP</t>
   </si>
   <si>
-    <t>Scoops</t>
+    <t>Cuillère-mesure</t>
   </si>
   <si>
     <t>SPRY</t>
   </si>
   <si>
-    <t>Sprays</t>
+    <t>Pulvérisation</t>
   </si>
   <si>
     <t>DROP</t>
   </si>
   <si>
-    <t>Drops</t>
+    <t>Gouttes</t>
   </si>
   <si>
     <t>NDROP</t>
   </si>
   <si>
-    <t>Nasal Drops</t>
+    <t>Gouttes nasales</t>
   </si>
   <si>
     <t>OPDROP</t>
   </si>
   <si>
-    <t>Ophthalmic Drops</t>
+    <t>Gouttes ophtalmiques</t>
   </si>
   <si>
     <t>ORDROP</t>
   </si>
   <si>
-    <t>Oral Drops</t>
+    <t>Gouttes orales</t>
   </si>
   <si>
     <t>OTDROP</t>
   </si>
   <si>
-    <t>Otic Drops</t>
+    <t>Gouttes auriculaires</t>
   </si>
   <si>
     <t/>

--- a/www/terminologies/ValueSet-jdv-hl7-v3-AdministrableDrugForm-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-hl7-v3-AdministrableDrugForm-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115834</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-hl7-v3-AdministrableDrugForm-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-hl7-v3-AdministrableDrugForm-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115834</t>
+    <t>20251216141839</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:34+01:00</t>
+    <t>2025-12-16T14:18:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
